--- a/Nareen_FYP/Factor.xlsx
+++ b/Nareen_FYP/Factor.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth Shah\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Parth Shah\Desktop\FYP_NOT_Eat\Nareen_FYP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9636" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Goats Cheese,Ripened Soft Cheese,Raw Meat,Deli Meat,Smoked Seafood,Raw Eggs,Unpasteurised Milk,Unwashed Vegetables,Alcohol,Caffeine,Liquorice</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Salt,Alcohol,Refined Grains,Oily Food,Carbonated Drinks,Fried Food,Legumes,White bread,Pasta,Cereal,Rice,Crackers,Cakes,Cookies,Processed Foods,Burger,Orange,Banana,Watermelon,Salmon,Brocolli,Dark Chocolate,Caffeine,Milk,Yoghurt,Sugary Foods</t>
   </si>
@@ -36,12 +33,51 @@
   </si>
   <si>
     <t>Period</t>
+  </si>
+  <si>
+    <t>Goats Cheese,Papaya Raw,Orange,Pineapple,Spicy Food,Garlic,Ginger,Fast Food,Ripened Soft Cheese,Raw Meat,Deli Meat,Smoked Seafood,Raw Eggs,Unpasteurised Milk,Unwashed Vegetables,Alcohol,Caffeine,Liquorice,Crackers,Cookies,Frozen Pizza,Fried Foods,Margarine,Frosting</t>
+  </si>
+  <si>
+    <t>Acne</t>
+  </si>
+  <si>
+    <t>Obesity</t>
+  </si>
+  <si>
+    <t>High Heart Rate</t>
+  </si>
+  <si>
+    <t>Low Blood Pressure</t>
+  </si>
+  <si>
+    <t>Infection</t>
+  </si>
+  <si>
+    <t>Stomach Ache</t>
+  </si>
+  <si>
+    <t>Eczema</t>
+  </si>
+  <si>
+    <t>Hair Loss</t>
+  </si>
+  <si>
+    <t>Food Allergy</t>
+  </si>
+  <si>
+    <t>Back Pain</t>
+  </si>
+  <si>
+    <t>Migraine</t>
+  </si>
+  <si>
+    <t>Vitamin Deficiency</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -386,32 +422,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
     <col min="2" max="2" width="60.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
